--- a/tecan_update/plate_mapper/plate_layout.xlsx
+++ b/tecan_update/plate_mapper/plate_layout.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -514,27 +514,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test3</t>
         </is>
       </c>
     </row>
@@ -546,52 +546,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,42 +623,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/tecan_update/plate_mapper/plate_layout.xlsx
+++ b/tecan_update/plate_mapper/plate_layout.xlsx
@@ -479,62 +479,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>E1</t>
         </is>
       </c>
     </row>
@@ -546,62 +546,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E1</t>
         </is>
       </c>
     </row>
@@ -613,62 +613,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
     </row>
@@ -680,62 +680,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
     </row>
@@ -747,62 +747,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
     </row>
@@ -814,62 +814,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
     </row>
@@ -881,62 +881,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
     </row>
@@ -948,62 +948,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>E5</t>
         </is>
       </c>
     </row>
